--- a/z0bug_odoo/testenv/account_tax.xlsx
+++ b/z0bug_odoo/testenv/account_tax.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="account_tax" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="account_tax" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="88">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -52,6 +52,33 @@
     <t xml:space="preserve">refund_account_id</t>
   </si>
   <si>
+    <t xml:space="preserve">kind_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">law_reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.tax_22a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IVA 22% da acquisti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">percent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">purchase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">False</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l10n_generic_coa.conf_ova</t>
+  </si>
+  <si>
     <t xml:space="preserve">z0bug.tax_22v</t>
   </si>
   <si>
@@ -61,33 +88,12 @@
     <t xml:space="preserve">IVA 22% su vendite</t>
   </si>
   <si>
-    <t xml:space="preserve">percent</t>
-  </si>
-  <si>
     <t xml:space="preserve">sale</t>
   </si>
   <si>
-    <t xml:space="preserve">False</t>
-  </si>
-  <si>
     <t xml:space="preserve">l10n_generic_coa.conf_iva</t>
   </si>
   <si>
-    <t xml:space="preserve">z0bug.tax_22a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IVA 22% da acquisti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">purchase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">l10n_generic_coa.conf_ova</t>
-  </si>
-  <si>
     <t xml:space="preserve">z0bug.tax_a17c2a</t>
   </si>
   <si>
@@ -97,73 +103,178 @@
     <t xml:space="preserve">Acq. (RC 22%) N.I. art.17 c.2 DPR633</t>
   </si>
   <si>
+    <t xml:space="preserve">z0bug.tax_a17c2v</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a17c2v</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vend. (RC 22%) N.I. art.17 c.2 DPR633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.tax_a41a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a41a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vend.N.I. art.41 L.427/93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.tax_a41v</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a41v</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l10n_it_ade.n3_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N.I. art.41 L.427/93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.tax_a7ta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a7ta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acq.NI art.7ter DPR633 (servizi xUE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.tax_a7tv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a7tv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vend.NI art.7ter DPR633 (servizi xUE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l10n_it_ade.n3_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NI art.7ter DPR633 (servizi xUE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.tax_a8aa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a8aa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acq.N.I. art.8a DPR633 (Dogana)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.tax_a8av</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a8av</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vend.N.I. art.8a DPR633 (Dogana)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.tax_a8c2a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a8c2a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acq.N.I. art.8c2 DPR633 (lett.Intento)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.tax_a8c2v</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a8c2v</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vend.N.I. art.8c2 DPR633 (lett.Intento)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.tax_a10a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a10a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acq.esente art.10 DPR633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.tax_a10v</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a10v</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vend.esente art.10 DPR633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.tax_a15a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a15a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acq.escluso art.15 DPR633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.tax_a15v</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a15v</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vend.escluso art.15 DPR633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.tax_a1a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a1a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acq.fuori campo IVA (art.1 DPR633)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.tax_a1v</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a1v</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vend.fuori campo IVA (art.1 DPR633)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.tax_22vINC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22vINC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IVA 22% da scorporare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">True</t>
+  </si>
+  <si>
     <t xml:space="preserve">z0bug.tax_aa17c2v</t>
   </si>
   <si>
     <t xml:space="preserve">aa17c2v</t>
   </si>
   <si>
-    <t xml:space="preserve">Rev. charge art.17 c.2 DPR633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.tax_a17c2v</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a17c2v</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vend. (RC 22%) N.I. art.17 c.2 DPR633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.tax_aa41a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aa41a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acq.N.I. art.41 L.427/93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.tax_a41a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a41a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vend.N.I. art.41 L.427/93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.tax_a41v</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a41v</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.tax_a7ta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a7ta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acq.NI art.7ter DPR633 (servizi xUE)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.tax_a7tv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a7tv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vend.NI art.7ter DPR633 (servizi xUE)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.tax_a8aa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a8aa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acq.N.I. art.8a DPR633 (Dogana)</t>
+    <t xml:space="preserve">Rev. Charge art.17 c.2 DPR633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.tax_aa41v</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aa41v</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rev. Charge art.41</t>
   </si>
   <si>
     <t xml:space="preserve">z0bug.tax_aa8av</t>
@@ -173,99 +284,6 @@
   </si>
   <si>
     <t xml:space="preserve">Rev. Charge art.8a DPR633 (Dogana)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.tax_a8av</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a8av</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vend.N.I. art.8a DPR633 (Dogana)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.tax_a8c2a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a8c2a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acq.N.I. art.8c2 DPR633 (lett.Intento)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.tax_a8c2v</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a8c2v</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vend.N.I. art.8c2 DPR633 (lett.Intento)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.tax_a10a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a10a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acq.esente art.10 DPR633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.tax_a10v</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a10v</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vend.esente art.10 DPR633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.tax_a15a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a15a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acq.escluso art.15 DPR633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.tax_a15v</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a15v</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vend.escluso art.15 DPR633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.tax_a1a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a1a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acq.fuori campo IVA (art.1 DPR633)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.tax_a1v</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a1v</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vend.fuori campo IVA (art.1 DPR633)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.tax_22vINC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22vINC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IVA 22% da scorporare</t>
-  </si>
-  <si>
-    <t xml:space="preserve">True</t>
   </si>
 </sst>
 </file>
@@ -367,7 +385,122 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
 </styleSheet>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -375,10 +508,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2:E23"/>
+      <selection pane="topLeft" activeCell="L7" activeCellId="0" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -392,6 +525,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="12.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="12.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="23.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="15.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="27.86"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -425,16 +560,22 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>1</v>
@@ -443,30 +584,30 @@
         <v>22</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>1</v>
@@ -475,30 +616,30 @@
         <v>22</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>23</v>
@@ -507,561 +648,579 @@
         <v>22</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>200</v>
+        <v>24</v>
       </c>
       <c r="E5" s="2" t="n">
         <v>22</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>22</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="D7" s="1" t="n">
-        <v>200</v>
+        <v>36</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="E9" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="D12" s="1" t="n">
-        <v>45</v>
-      </c>
       <c r="E12" s="2" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="1" t="n">
-        <v>200</v>
-      </c>
       <c r="E13" s="2" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="1" t="n">
         <v>56</v>
-      </c>
-      <c r="D15" s="1" t="n">
-        <v>47</v>
       </c>
       <c r="E15" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="1" t="n">
         <v>57</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" s="1" t="n">
-        <v>48</v>
       </c>
       <c r="E16" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E17" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D18" s="1" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E18" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D19" s="1" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E19" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D20" s="1" t="n">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>15</v>
+        <v>78</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D21" s="1" t="n">
-        <v>59</v>
+        <v>200</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D22" s="1" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K22" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="D23" s="1" t="n">
-        <v>91</v>
+        <v>200</v>
       </c>
       <c r="E23" s="2" t="n">
         <v>22</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
